--- a/test_case/Authentication/login/login_security_testing.xlsx
+++ b/test_case/Authentication/login/login_security_testing.xlsx
@@ -45,6 +45,9 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>TC-LS-073</t>
+  </si>
+  <si>
     <t>Login page URL accessible</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>Login successful; dashboard accessible</t>
+  </si>
+  <si>
+    <t>TC-LS-074</t>
   </si>
   <si>
     <t>Login page loaded</t>
@@ -71,6 +77,9 @@
     <t>Error message: “Invalid credentials”</t>
   </si>
   <si>
+    <t>TC-LS-075</t>
+  </si>
+  <si>
     <t>Test Brute Force attack protection</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
     <t>Should block user temporarily or show warning</t>
   </si>
   <si>
+    <t>TC-LS-076</t>
+  </si>
+  <si>
     <t>Test password strength enforcement</t>
   </si>
   <si>
@@ -87,6 +99,9 @@
   </si>
   <si>
     <t>System should reject weak password (if applicable)</t>
+  </si>
+  <si>
+    <t>TC-LS-077</t>
   </si>
   <si>
     <t>Test HTTPS / SSL</t>
@@ -99,6 +114,9 @@
     <t>URL must start with https://</t>
   </si>
   <si>
+    <t>TC-LS-078</t>
+  </si>
+  <si>
     <t>Test password masking</t>
   </si>
   <si>
@@ -106,6 +124,9 @@
   </si>
   <si>
     <t>Password hidden as •••••</t>
+  </si>
+  <si>
+    <t>TC-LS-079</t>
   </si>
   <si>
     <t>Logged in</t>
@@ -122,6 +143,9 @@
     <t>Should not access dashboard</t>
   </si>
   <si>
+    <t>TC-LS-080</t>
+  </si>
+  <si>
     <t>Test password recovery security</t>
   </si>
   <si>
@@ -130,6 +154,9 @@
   </si>
   <si>
     <t>System should not reveal sensitive info</t>
+  </si>
+  <si>
+    <t>TC-LS-081</t>
   </si>
   <si>
     <t>Test login input validation</t>
@@ -143,33 +170,6 @@
   </si>
   <si>
     <t>Test Scenario:security on the Login</t>
-  </si>
-  <si>
-    <t>TC-LS-034</t>
-  </si>
-  <si>
-    <t>TC-LS-035</t>
-  </si>
-  <si>
-    <t>TC-LS-036</t>
-  </si>
-  <si>
-    <t>TC-LS-037</t>
-  </si>
-  <si>
-    <t>TC-LS-038</t>
-  </si>
-  <si>
-    <t>TC-LS-039</t>
-  </si>
-  <si>
-    <t>TC-LS-040</t>
-  </si>
-  <si>
-    <t>TC-LS-041</t>
-  </si>
-  <si>
-    <t>TC-LS-042</t>
   </si>
 </sst>
 </file>
@@ -188,31 +188,26 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -597,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:AA989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -613,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -718,198 +713,198 @@
     </row>
     <row r="4" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>40</v>
+      <c r="A5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="8">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>41</v>
+      <c r="A6" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="8">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>42</v>
+      <c r="A7" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="8">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>43</v>
+      <c r="A8" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="8">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>44</v>
+      <c r="A9" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="8">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>45</v>
+      <c r="A10" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="8">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>46</v>
+      <c r="A11" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="8">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>47</v>
+      <c r="A12" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="8">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
